--- a/Base/Teams/Bears/Players Data.xlsx
+++ b/Base/Teams/Bears/Players Data.xlsx
@@ -478,13 +478,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -535,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -723,10 +723,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>23</v>
@@ -827,10 +827,10 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -867,22 +867,22 @@
         <v>21</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -893,22 +893,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -919,19 +919,19 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>8</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -945,10 +945,10 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -957,10 +957,10 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/Base/Teams/Bears/Players Data.xlsx
+++ b/Base/Teams/Bears/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>A.Dalton</t>
+  </si>
+  <si>
+    <t>J.Fields</t>
   </si>
   <si>
     <t>D.Montgomery</t>
@@ -444,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -515,16 +518,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -535,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -555,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -575,13 +578,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -595,16 +598,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -618,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -635,16 +638,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -655,15 +658,35 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -685,22 +708,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -708,13 +731,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -734,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>9</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -760,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -786,16 +809,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -812,16 +835,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -838,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -864,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -873,10 +896,10 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -890,19 +913,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -916,13 +939,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -931,7 +954,7 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -942,13 +965,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -968,7 +991,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>7</v>

--- a/Base/Teams/Bears/Players Data.xlsx
+++ b/Base/Teams/Bears/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>J.James</t>
+  </si>
+  <si>
+    <t>J.Horsted</t>
   </si>
 </sst>
 </file>
@@ -498,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -518,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -618,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -627,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -658,13 +661,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -697,7 +700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -734,11 +737,11 @@
         <v>7</v>
       </c>
       <c r="C2">
+        <v>46</v>
+      </c>
+      <c r="D2">
         <v>40</v>
       </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -746,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -786,10 +789,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -838,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -890,10 +893,10 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -902,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -942,19 +945,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -968,19 +971,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>7</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1009,6 +1012,32 @@
         <v>2</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Bears/Players Data.xlsx
+++ b/Base/Teams/Bears/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -38,6 +38,9 @@
     <t>J.Fields</t>
   </si>
   <si>
+    <t>N.Foles</t>
+  </si>
+  <si>
     <t>D.Montgomery</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>D.Byrd</t>
+  </si>
+  <si>
+    <t>D.Newsome</t>
   </si>
   <si>
     <t>J.Graham</t>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>128</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -541,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -561,13 +567,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -581,16 +587,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -601,13 +607,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -621,16 +627,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -641,16 +647,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -661,16 +667,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -681,15 +687,35 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +726,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -711,22 +737,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -734,13 +760,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -749,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -760,16 +786,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -786,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -812,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>41</v>
@@ -838,19 +864,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -864,13 +890,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>13</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -890,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -905,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -916,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -942,25 +968,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -968,25 +994,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -994,25 +1020,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1020,13 +1046,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1035,9 +1061,35 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
     </row>

--- a/Base/Teams/Bears/Players Data.xlsx
+++ b/Base/Teams/Bears/Players Data.xlsx
@@ -490,13 +490,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -547,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -590,10 +590,10 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -627,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -841,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -867,22 +867,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>14</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>13</v>
@@ -905,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -919,16 +919,16 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>18</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -997,10 +997,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1009,10 +1009,10 @@
         <v>6</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1029,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1049,10 +1049,10 @@
         <v>26</v>
       </c>
       <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
         <v>7</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>

--- a/Base/Teams/Bears/Players Data.xlsx
+++ b/Base/Teams/Bears/Players Data.xlsx
@@ -493,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -547,16 +547,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D5">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -789,22 +789,22 @@
         <v>9</v>
       </c>
       <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -841,10 +841,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>17</v>
@@ -867,22 +867,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>14</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -893,10 +893,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -919,10 +919,10 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -971,13 +971,13 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -997,16 +997,16 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -1023,10 +1023,10 @@
         <v>25</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>3</v>
